--- a/teaching/traditional_assets/database/data/jersey/jersey_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_software_entertainment.xlsx
@@ -590,26 +590,23 @@
           <t>Software (Entertainment)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>1.849</v>
-      </c>
       <c r="G2">
-        <v>-0.6477777777777778</v>
+        <v>-0.2850617283950617</v>
       </c>
       <c r="H2">
-        <v>-0.6583333333333333</v>
+        <v>-0.3037037037037037</v>
       </c>
       <c r="I2">
-        <v>-0.6974264272633727</v>
+        <v>-0.2695473251028807</v>
       </c>
       <c r="J2">
-        <v>-0.6974264272633727</v>
+        <v>-0.2695473251028807</v>
       </c>
       <c r="K2">
-        <v>-7.47</v>
+        <v>-6.55</v>
       </c>
       <c r="L2">
-        <v>-0.6916666666666667</v>
+        <v>-0.2695473251028807</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.35</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="V2">
-        <v>0.0925414364640884</v>
+        <v>0.01455516014234875</v>
       </c>
       <c r="W2">
-        <v>-1.649006622516556</v>
+        <v>-0.8675496688741722</v>
       </c>
       <c r="X2">
-        <v>0.09511084310473472</v>
+        <v>0.06424379446561708</v>
       </c>
       <c r="Y2">
-        <v>-1.744117465621291</v>
+        <v>-0.9317934633397893</v>
       </c>
       <c r="Z2">
-        <v>2.394664117765207</v>
+        <v>4.942037827943867</v>
       </c>
       <c r="AA2">
-        <v>-1.670102040148784</v>
+        <v>-1.33211307707952</v>
       </c>
       <c r="AB2">
-        <v>0.09142906378436214</v>
+        <v>0.06312149333162342</v>
       </c>
       <c r="AC2">
-        <v>-1.761531103933147</v>
+        <v>-1.395234570411143</v>
       </c>
       <c r="AD2">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AE2">
-        <v>1.831027072222127</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.431027072222127</v>
+        <v>1.69</v>
       </c>
       <c r="AG2">
-        <v>0.08102707222212713</v>
+        <v>0.872</v>
       </c>
       <c r="AH2">
-        <v>0.08657426581374107</v>
+        <v>0.02919329763344274</v>
       </c>
       <c r="AI2">
-        <v>0.3124504702207079</v>
+        <v>0.4870317002881844</v>
       </c>
       <c r="AJ2">
-        <v>0.002233318038677134</v>
+        <v>0.0152789458929072</v>
       </c>
       <c r="AK2">
-        <v>0.01061810834311879</v>
+        <v>0.3288084464555053</v>
       </c>
       <c r="AL2">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="AM2">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="AN2">
-        <v>-0.2396644697423607</v>
+        <v>-0.2522388059701492</v>
       </c>
       <c r="AO2">
-        <v>-63.33333333333334</v>
+        <v>-29.77272727272727</v>
       </c>
       <c r="AP2">
-        <v>-0.01213706893680754</v>
+        <v>-0.1301492537313433</v>
       </c>
       <c r="AQ2">
-        <v>-63.33333333333334</v>
+        <v>-29.77272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -718,26 +715,23 @@
           <t>Software (Entertainment)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>1.849</v>
-      </c>
       <c r="G3">
-        <v>-0.6477777777777778</v>
+        <v>-0.2850617283950617</v>
       </c>
       <c r="H3">
-        <v>-0.6583333333333333</v>
+        <v>-0.3037037037037037</v>
       </c>
       <c r="I3">
-        <v>-0.6974264272633727</v>
+        <v>-0.2695473251028807</v>
       </c>
       <c r="J3">
-        <v>-0.6974264272633727</v>
+        <v>-0.2695473251028807</v>
       </c>
       <c r="K3">
-        <v>-7.47</v>
+        <v>-6.55</v>
       </c>
       <c r="L3">
-        <v>-0.6916666666666667</v>
+        <v>-0.2695473251028807</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.35</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="V3">
-        <v>0.0925414364640884</v>
+        <v>0.01455516014234875</v>
       </c>
       <c r="W3">
-        <v>-1.649006622516556</v>
+        <v>-0.8675496688741722</v>
       </c>
       <c r="X3">
-        <v>0.09511084310473472</v>
+        <v>0.06424379446561708</v>
       </c>
       <c r="Y3">
-        <v>-1.744117465621291</v>
+        <v>-0.9317934633397893</v>
       </c>
       <c r="Z3">
-        <v>2.394664117765207</v>
+        <v>4.942037827943867</v>
       </c>
       <c r="AA3">
-        <v>-1.670102040148784</v>
+        <v>-1.33211307707952</v>
       </c>
       <c r="AB3">
-        <v>0.09142906378436214</v>
+        <v>0.06312149333162342</v>
       </c>
       <c r="AC3">
-        <v>-1.761531103933147</v>
+        <v>-1.395234570411143</v>
       </c>
       <c r="AD3">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AE3">
-        <v>1.831027072222127</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.431027072222127</v>
+        <v>1.69</v>
       </c>
       <c r="AG3">
-        <v>0.08102707222212713</v>
+        <v>0.872</v>
       </c>
       <c r="AH3">
-        <v>0.08657426581374107</v>
+        <v>0.02919329763344274</v>
       </c>
       <c r="AI3">
-        <v>0.3124504702207079</v>
+        <v>0.4870317002881844</v>
       </c>
       <c r="AJ3">
-        <v>0.002233318038677134</v>
+        <v>0.0152789458929072</v>
       </c>
       <c r="AK3">
-        <v>0.01061810834311879</v>
+        <v>0.3288084464555053</v>
       </c>
       <c r="AL3">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="AM3">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="AN3">
-        <v>-0.2396644697423607</v>
+        <v>-0.2522388059701492</v>
       </c>
       <c r="AO3">
-        <v>-63.33333333333334</v>
+        <v>-29.77272727272727</v>
       </c>
       <c r="AP3">
-        <v>-0.01213706893680754</v>
+        <v>-0.1301492537313433</v>
       </c>
       <c r="AQ3">
-        <v>-63.33333333333334</v>
+        <v>-29.77272727272727</v>
       </c>
     </row>
   </sheetData>
